--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586224.1327769581</v>
+        <v>-588111.7142933598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>321.3671416383864</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.3318265038866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>126.4869277144714</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>205.9813484077757</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>321.2889091872196</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>279.9133128184451</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>57.68157701938548</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>91.88878909795829</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>329.0250494700863</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>16.86917505657701</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>117.5242961642339</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>85.88160312186093</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>135.0538410796056</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>130.2712161377613</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.7872343431365</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>255.9567939913725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>188.66109598625</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.7438101404425</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>162.5139762343112</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.3158222056517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>134.4442626460268</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.74571320013072</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.40955656862214</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>14.03583621539965</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523588</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>86.18652692092112</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.8324622741539</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689354</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1129.555708156771</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>771.2900095500206</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>385.5017569517764</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>378.5562562025729</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.526533804879</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>396.3638799638587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.567526816317</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610024</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>269.9555735993348</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>112.2072010318649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1701.775251950352</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.775251950352</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1343.509553343601</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>957.721300745357</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.109520254002</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.109520254002</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2680.109520254002</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2426.347734892094</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014473</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.919485916526</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="C10" t="n">
-        <v>308.9833029886191</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="D10" t="n">
-        <v>308.9833029886191</v>
+        <v>140.6920758828502</v>
       </c>
       <c r="E10" t="n">
-        <v>308.9833029886191</v>
+        <v>140.6920758828502</v>
       </c>
       <c r="F10" t="n">
-        <v>308.9833029886191</v>
+        <v>140.6920758828502</v>
       </c>
       <c r="G10" t="n">
-        <v>308.9833029886191</v>
+        <v>140.6920758828502</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>140.6920758828502</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.982325640618</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.982325640618</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.919485916526</v>
+        <v>290.8087152951859</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.1994242851241</v>
+        <v>699.5778825909697</v>
       </c>
       <c r="C13" t="n">
-        <v>657.1994242851241</v>
+        <v>530.6416996630628</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727884</v>
+        <v>380.5250602507271</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903952</v>
+        <v>380.5250602507271</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903952</v>
+        <v>233.6351127528167</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.409173465615</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>877.9920034286542</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="X13" t="n">
-        <v>877.9920034286542</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="Y13" t="n">
-        <v>657.1994242851241</v>
+        <v>699.5778825909697</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.6944526764914</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="C16" t="n">
-        <v>505.7582697485846</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362488</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362488</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>324.6983841950419</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>324.6983841950419</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>933.236668829393</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>674.6944526764914</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X16" t="n">
-        <v>674.6944526764914</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.6944526764914</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1108.42949685098</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.42949685098</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.42949685098</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>819.0123268140193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>819.0123268140193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1334.760739008093</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1110.975323797599</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>821.846685011157</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>821.846685011157</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>821.846685011157</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402492</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O25" t="n">
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1363.113985056866</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1108.429496850979</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>819.0123268140188</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336714</v>
+        <v>819.0123268140188</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336714</v>
+        <v>598.2197476704888</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6367,31 +6367,31 @@
         <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,22 +6409,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1461.799388537568</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1238.013973327074</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1238.013973327074</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V28" t="n">
-        <v>983.3294851211872</v>
+        <v>762.5369059776573</v>
       </c>
       <c r="W28" t="n">
-        <v>693.9123150842265</v>
+        <v>473.1197359406966</v>
       </c>
       <c r="X28" t="n">
-        <v>465.9227641862091</v>
+        <v>245.1301850426793</v>
       </c>
       <c r="Y28" t="n">
         <v>245.130185042679</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>672.9002034592902</v>
+        <v>750.874819421526</v>
       </c>
       <c r="C31" t="n">
-        <v>559.7248858127541</v>
+        <v>637.6995017749897</v>
       </c>
       <c r="D31" t="n">
-        <v>465.3691116817892</v>
+        <v>543.3437276440245</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>451.1914993430021</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="V31" t="n">
-        <v>1369.704507242555</v>
+        <v>1369.704507242552</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.048202486965</v>
+        <v>1136.048202486962</v>
       </c>
       <c r="X31" t="n">
-        <v>963.8195168703182</v>
+        <v>963.8195168703154</v>
       </c>
       <c r="Y31" t="n">
-        <v>798.787803008159</v>
+        <v>876.7624189703951</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823791</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986521</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7029,7 +7029,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415606</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>43.6598726146247</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>50.62661940943622</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>31.43972738377195</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8664271860667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>34.12659402439967</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>30.56620434521847</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>32.8864650721392</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338551</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>35.40683374929205</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.51615797628563</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>151.7930897525505</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>161.1750967834725</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>228.8277958299552</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>77.1948698026124</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>77.19486980261675</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.650457561176334e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1174922.540122536</v>
+        <v>1174922.540122537</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="9">
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="F2" t="n">
         <v>215065.9828557398</v>
@@ -26332,22 +26332,22 @@
         <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>4.961003696735133e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086703</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.6075868707</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687067</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-612673.3383518002</v>
       </c>
       <c r="C6" t="n">
-        <v>-22705.45913725591</v>
+        <v>-22705.45913725582</v>
       </c>
       <c r="D6" t="n">
-        <v>-22705.45913725585</v>
+        <v>-22705.45913725572</v>
       </c>
       <c r="E6" t="n">
-        <v>-424255.9871567436</v>
+        <v>-424353.4462827161</v>
       </c>
       <c r="F6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941803</v>
       </c>
       <c r="G6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941803</v>
       </c>
       <c r="H6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941805</v>
       </c>
       <c r="I6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941799</v>
       </c>
       <c r="J6" t="n">
-        <v>-75519.16987244047</v>
+        <v>-75616.62899841212</v>
       </c>
       <c r="K6" t="n">
-        <v>42622.13160576284</v>
+        <v>42603.63786782874</v>
       </c>
       <c r="L6" t="n">
-        <v>73135.07926359473</v>
+        <v>73135.07926359454</v>
       </c>
       <c r="M6" t="n">
-        <v>-51323.02916937562</v>
+        <v>-51323.02916937573</v>
       </c>
       <c r="N6" t="n">
-        <v>83477.98606446158</v>
+        <v>83477.98606446155</v>
       </c>
       <c r="O6" t="n">
-        <v>83477.98606446154</v>
+        <v>83477.98606446163</v>
       </c>
       <c r="P6" t="n">
-        <v>39315.38076161583</v>
+        <v>39315.38076161598</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
@@ -26741,28 +26741,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>92.4170283824086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.9061121521669</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>18.93412030845985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>46.15629491605233</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33.39413243346331</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>69.32765589896786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>77.28404477295274</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>126.6958642541365</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>77.85099627162509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>37.60922751823475</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>38.64659267756126</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>49.08401867047732</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>354.084249665091</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>361.0509964599025</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556566</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206031</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
